--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf15</t>
+  </si>
+  <si>
+    <t>Tnfrsf25</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf15</t>
-  </si>
-  <si>
-    <t>Tnfrsf25</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.427004</v>
       </c>
       <c r="I2">
-        <v>0.06236963389733018</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="J2">
-        <v>0.06344421604410445</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.002446333333334</v>
+        <v>2.201403333333333</v>
       </c>
       <c r="N2">
-        <v>15.007339</v>
+        <v>6.60421</v>
       </c>
       <c r="O2">
-        <v>0.607216680258297</v>
+        <v>0.3757224775822448</v>
       </c>
       <c r="P2">
-        <v>0.6254366121580431</v>
+        <v>0.4254303673671528</v>
       </c>
       <c r="Q2">
-        <v>0.712021531372889</v>
+        <v>0.3133360096488889</v>
       </c>
       <c r="R2">
-        <v>6.408193782356</v>
+        <v>2.82002408684</v>
       </c>
       <c r="S2">
-        <v>0.03787188204406219</v>
+        <v>0.01131430979801726</v>
       </c>
       <c r="T2">
-        <v>0.03968033554364765</v>
+        <v>0.012811187142304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.427004</v>
       </c>
       <c r="I3">
-        <v>0.06236963389733018</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="J3">
-        <v>0.06344421604410445</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>3.94741</v>
       </c>
       <c r="O3">
-        <v>0.1597174019870148</v>
+        <v>0.2245735167768634</v>
       </c>
       <c r="P3">
-        <v>0.1645098266387386</v>
+        <v>0.2542844770909424</v>
       </c>
       <c r="Q3">
         <v>0.1872844288488889</v>
@@ -638,10 +638,10 @@
         <v>1.68555985964</v>
       </c>
       <c r="S3">
-        <v>0.009961515888962826</v>
+        <v>0.006762689199736425</v>
       </c>
       <c r="T3">
-        <v>0.0104371969826463</v>
+        <v>0.007657389489038392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>0.427004</v>
       </c>
       <c r="I4">
-        <v>0.06236963389733018</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="J4">
-        <v>0.06344421604410445</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.6767933333333334</v>
+        <v>0.2143673333333333</v>
       </c>
       <c r="N4">
-        <v>2.03038</v>
+        <v>0.643102</v>
       </c>
       <c r="O4">
-        <v>0.08215184605764159</v>
+        <v>0.03658694632334477</v>
       </c>
       <c r="P4">
-        <v>0.08461686569440774</v>
+        <v>0.04142738043074807</v>
       </c>
       <c r="Q4">
-        <v>0.09633115350222222</v>
+        <v>0.03051190293422222</v>
       </c>
       <c r="R4">
-        <v>0.86698038152</v>
+        <v>0.274607126408</v>
       </c>
       <c r="S4">
-        <v>0.005123780562604934</v>
+        <v>0.001101760128724631</v>
       </c>
       <c r="T4">
-        <v>0.005368450708090975</v>
+        <v>0.001247522424875949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.427004</v>
       </c>
       <c r="I5">
-        <v>0.06236963389733018</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="J5">
-        <v>0.06344421604410445</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7199850000000001</v>
+        <v>2.053764</v>
       </c>
       <c r="N5">
-        <v>1.43997</v>
+        <v>4.107528</v>
       </c>
       <c r="O5">
-        <v>0.08739462103223694</v>
+        <v>0.3505242709343985</v>
       </c>
       <c r="P5">
-        <v>0.06001130236407783</v>
+        <v>0.2645989673270333</v>
       </c>
       <c r="Q5">
-        <v>0.10247882498</v>
+        <v>0.292321814352</v>
       </c>
       <c r="R5">
-        <v>0.6148729498800001</v>
+        <v>1.753930886112</v>
       </c>
       <c r="S5">
-        <v>0.005450770518376531</v>
+        <v>0.01055550420777736</v>
       </c>
       <c r="T5">
-        <v>0.00380737003227463</v>
+        <v>0.007967994642849589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.427004</v>
       </c>
       <c r="I6">
-        <v>0.06236963389733018</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="J6">
-        <v>0.06344421604410445</v>
+        <v>0.03011347596455839</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5232936666666667</v>
+        <v>0.07378266666666666</v>
       </c>
       <c r="N6">
-        <v>1.569881</v>
+        <v>0.221348</v>
       </c>
       <c r="O6">
-        <v>0.06351945066480975</v>
+        <v>0.01259278838314874</v>
       </c>
       <c r="P6">
-        <v>0.06542539314473277</v>
+        <v>0.01425880778412324</v>
       </c>
       <c r="Q6">
-        <v>0.07448282961377778</v>
+        <v>0.01050183126577778</v>
       </c>
       <c r="R6">
-        <v>0.670345466524</v>
+        <v>0.09451648139199999</v>
       </c>
       <c r="S6">
-        <v>0.003961684883323711</v>
+        <v>0.0003792126303027196</v>
       </c>
       <c r="T6">
-        <v>0.004150862777444896</v>
+        <v>0.0004293822654904533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.570039666666667</v>
+        <v>1.993454</v>
       </c>
       <c r="H7">
-        <v>4.710119</v>
+        <v>5.980362</v>
       </c>
       <c r="I7">
-        <v>0.6879757511471998</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="J7">
-        <v>0.6998290588131287</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.002446333333334</v>
+        <v>2.201403333333333</v>
       </c>
       <c r="N7">
-        <v>15.007339</v>
+        <v>6.60421</v>
       </c>
       <c r="O7">
-        <v>0.607216680258297</v>
+        <v>0.3757224775822448</v>
       </c>
       <c r="P7">
-        <v>0.6254366121580431</v>
+        <v>0.4254303673671528</v>
       </c>
       <c r="Q7">
-        <v>7.854039173704556</v>
+        <v>4.388396280446667</v>
       </c>
       <c r="R7">
-        <v>70.686352563341</v>
+        <v>39.49556652402001</v>
       </c>
       <c r="S7">
-        <v>0.4177503517098109</v>
+        <v>0.1584614391722093</v>
       </c>
       <c r="T7">
-        <v>0.4376987156338352</v>
+        <v>0.1794258057552704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.570039666666667</v>
+        <v>1.993454</v>
       </c>
       <c r="H8">
-        <v>4.710119</v>
+        <v>5.980362</v>
       </c>
       <c r="I8">
-        <v>0.6879757511471998</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="J8">
-        <v>0.6998290588131287</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.94741</v>
       </c>
       <c r="O8">
-        <v>0.1597174019870148</v>
+        <v>0.2245735167768634</v>
       </c>
       <c r="P8">
-        <v>0.1645098266387386</v>
+        <v>0.2542844770909424</v>
       </c>
       <c r="Q8">
-        <v>2.065863426865556</v>
+        <v>2.622993418046666</v>
       </c>
       <c r="R8">
-        <v>18.59277084179</v>
+        <v>23.60694076242</v>
       </c>
       <c r="S8">
-        <v>0.1098816996032957</v>
+        <v>0.09471417014340411</v>
       </c>
       <c r="T8">
-        <v>0.1151287571420994</v>
+        <v>0.1072448059489949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.570039666666667</v>
+        <v>1.993454</v>
       </c>
       <c r="H9">
-        <v>4.710119</v>
+        <v>5.980362</v>
       </c>
       <c r="I9">
-        <v>0.6879757511471998</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="J9">
-        <v>0.6998290588131287</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6767933333333334</v>
+        <v>0.2143673333333333</v>
       </c>
       <c r="N9">
-        <v>2.03038</v>
+        <v>0.643102</v>
       </c>
       <c r="O9">
-        <v>0.08215184605764159</v>
+        <v>0.03658694632334477</v>
       </c>
       <c r="P9">
-        <v>0.08461686569440774</v>
+        <v>0.04142738043074807</v>
       </c>
       <c r="Q9">
-        <v>1.062592379468889</v>
+        <v>0.4273314181026667</v>
       </c>
       <c r="R9">
-        <v>9.56333141522</v>
+        <v>3.845982762924</v>
       </c>
       <c r="S9">
-        <v>0.05651847799963509</v>
+        <v>0.01543059176714946</v>
       </c>
       <c r="T9">
-        <v>0.05921734147863429</v>
+        <v>0.01747205109056585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.570039666666667</v>
+        <v>1.993454</v>
       </c>
       <c r="H10">
-        <v>4.710119</v>
+        <v>5.980362</v>
       </c>
       <c r="I10">
-        <v>0.6879757511471998</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="J10">
-        <v>0.6998290588131287</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7199850000000001</v>
+        <v>2.053764</v>
       </c>
       <c r="N10">
-        <v>1.43997</v>
+        <v>4.107528</v>
       </c>
       <c r="O10">
-        <v>0.08739462103223694</v>
+        <v>0.3505242709343985</v>
       </c>
       <c r="P10">
-        <v>0.06001130236407783</v>
+        <v>0.2645989673270333</v>
       </c>
       <c r="Q10">
-        <v>1.130405009405</v>
+        <v>4.094084060856001</v>
       </c>
       <c r="R10">
-        <v>6.782430056430001</v>
+        <v>24.564504365136</v>
       </c>
       <c r="S10">
-        <v>0.06012538005087807</v>
+        <v>0.1478340630416386</v>
       </c>
       <c r="T10">
-        <v>0.04199765325160267</v>
+        <v>0.1115949554999514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.570039666666667</v>
+        <v>1.993454</v>
       </c>
       <c r="H11">
-        <v>4.710119</v>
+        <v>5.980362</v>
       </c>
       <c r="I11">
-        <v>0.6879757511471998</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="J11">
-        <v>0.6998290588131287</v>
+        <v>0.4217512888552762</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.5232936666666667</v>
+        <v>0.07378266666666666</v>
       </c>
       <c r="N11">
-        <v>1.569881</v>
+        <v>0.221348</v>
       </c>
       <c r="O11">
-        <v>0.06351945066480975</v>
+        <v>0.01259278838314874</v>
       </c>
       <c r="P11">
-        <v>0.06542539314473277</v>
+        <v>0.01425880778412324</v>
       </c>
       <c r="Q11">
-        <v>0.821591813982111</v>
+        <v>0.1470823519973333</v>
       </c>
       <c r="R11">
-        <v>7.394326325838999</v>
+        <v>1.323741167976</v>
       </c>
       <c r="S11">
-        <v>0.04369984178357999</v>
+        <v>0.005311024730874729</v>
       </c>
       <c r="T11">
-        <v>0.04578659130695726</v>
+        <v>0.006013670560493622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1159595</v>
+        <v>2.590821666666667</v>
       </c>
       <c r="H12">
-        <v>0.231919</v>
+        <v>7.772465</v>
       </c>
       <c r="I12">
-        <v>0.05081229844627305</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="J12">
-        <v>0.0344585042311844</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.002446333333334</v>
+        <v>2.201403333333333</v>
       </c>
       <c r="N12">
-        <v>15.007339</v>
+        <v>6.60421</v>
       </c>
       <c r="O12">
-        <v>0.607216680258297</v>
+        <v>0.3757224775822448</v>
       </c>
       <c r="P12">
-        <v>0.6254366121580431</v>
+        <v>0.4254303673671528</v>
       </c>
       <c r="Q12">
-        <v>0.5800811755901668</v>
+        <v>5.703443453072222</v>
       </c>
       <c r="R12">
-        <v>3.480487053541001</v>
+        <v>51.33099107765</v>
       </c>
       <c r="S12">
-        <v>0.03085407517883975</v>
+        <v>0.2059467286120182</v>
       </c>
       <c r="T12">
-        <v>0.02155161014638557</v>
+        <v>0.2331933744695785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1159595</v>
+        <v>2.590821666666667</v>
       </c>
       <c r="H13">
-        <v>0.231919</v>
+        <v>7.772465</v>
       </c>
       <c r="I13">
-        <v>0.05081229844627305</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="J13">
-        <v>0.0344585042311844</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.94741</v>
       </c>
       <c r="O13">
-        <v>0.1597174019870148</v>
+        <v>0.2245735167768634</v>
       </c>
       <c r="P13">
-        <v>0.1645098266387386</v>
+        <v>0.2542844770909424</v>
       </c>
       <c r="Q13">
-        <v>0.1525798966316667</v>
+        <v>3.409011785072222</v>
       </c>
       <c r="R13">
-        <v>0.91547937979</v>
+        <v>30.68110606565</v>
       </c>
       <c r="S13">
-        <v>0.008115608296827559</v>
+        <v>0.1230966574337228</v>
       </c>
       <c r="T13">
-        <v>0.005668762557302386</v>
+        <v>0.1393822816529091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1159595</v>
+        <v>2.590821666666667</v>
       </c>
       <c r="H14">
-        <v>0.231919</v>
+        <v>7.772465</v>
       </c>
       <c r="I14">
-        <v>0.05081229844627305</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="J14">
-        <v>0.0344585042311844</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.6767933333333334</v>
+        <v>0.2143673333333333</v>
       </c>
       <c r="N14">
-        <v>2.03038</v>
+        <v>0.643102</v>
       </c>
       <c r="O14">
-        <v>0.08215184605764159</v>
+        <v>0.03658694632334477</v>
       </c>
       <c r="P14">
-        <v>0.08461686569440774</v>
+        <v>0.04142738043074807</v>
       </c>
       <c r="Q14">
-        <v>0.07848061653666667</v>
+        <v>0.5553875318255556</v>
       </c>
       <c r="R14">
-        <v>0.4708836992200001</v>
+        <v>4.99848778643</v>
       </c>
       <c r="S14">
-        <v>0.004174324119793164</v>
+        <v>0.02005459442747067</v>
       </c>
       <c r="T14">
-        <v>0.002915770624560311</v>
+        <v>0.02270780691530627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1159595</v>
+        <v>2.590821666666667</v>
       </c>
       <c r="H15">
-        <v>0.231919</v>
+        <v>7.772465</v>
       </c>
       <c r="I15">
-        <v>0.05081229844627305</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="J15">
-        <v>0.0344585042311844</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7199850000000001</v>
+        <v>2.053764</v>
       </c>
       <c r="N15">
-        <v>1.43997</v>
+        <v>4.107528</v>
       </c>
       <c r="O15">
-        <v>0.08739462103223694</v>
+        <v>0.3505242709343985</v>
       </c>
       <c r="P15">
-        <v>0.06001130236407783</v>
+        <v>0.2645989673270333</v>
       </c>
       <c r="Q15">
-        <v>0.08348910060750002</v>
+        <v>5.320936269420001</v>
       </c>
       <c r="R15">
-        <v>0.3339564024300001</v>
+        <v>31.92561761652</v>
       </c>
       <c r="S15">
-        <v>0.004440721566488955</v>
+        <v>0.1921347036849825</v>
       </c>
       <c r="T15">
-        <v>0.002067899716431462</v>
+        <v>0.1450360171842323</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1159595</v>
+        <v>2.590821666666667</v>
       </c>
       <c r="H16">
-        <v>0.231919</v>
+        <v>7.772465</v>
       </c>
       <c r="I16">
-        <v>0.05081229844627305</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="J16">
-        <v>0.0344585042311844</v>
+        <v>0.5481352351801654</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,338 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.5232936666666667</v>
+        <v>0.07378266666666666</v>
       </c>
       <c r="N16">
-        <v>1.569881</v>
+        <v>0.221348</v>
       </c>
       <c r="O16">
-        <v>0.06351945066480975</v>
+        <v>0.01259278838314874</v>
       </c>
       <c r="P16">
-        <v>0.06542539314473277</v>
+        <v>0.01425880778412324</v>
       </c>
       <c r="Q16">
-        <v>0.06068087193983333</v>
+        <v>0.1911577314244444</v>
       </c>
       <c r="R16">
-        <v>0.364085231639</v>
+        <v>1.72041958282</v>
       </c>
       <c r="S16">
-        <v>0.003227569284323631</v>
+        <v>0.006902551021971287</v>
       </c>
       <c r="T16">
-        <v>0.002254461186504677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.453781</v>
-      </c>
-      <c r="H17">
-        <v>1.361343</v>
-      </c>
-      <c r="I17">
-        <v>0.198842316509197</v>
-      </c>
-      <c r="J17">
-        <v>0.2022682209115823</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.002446333333334</v>
-      </c>
-      <c r="N17">
-        <v>15.007339</v>
-      </c>
-      <c r="O17">
-        <v>0.607216680258297</v>
-      </c>
-      <c r="P17">
-        <v>0.6254366121580431</v>
-      </c>
-      <c r="Q17">
-        <v>2.270015099586334</v>
-      </c>
-      <c r="R17">
-        <v>20.430135896277</v>
-      </c>
-      <c r="S17">
-        <v>0.1207403713255842</v>
-      </c>
-      <c r="T17">
-        <v>0.1265059508341747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.453781</v>
-      </c>
-      <c r="H18">
-        <v>1.361343</v>
-      </c>
-      <c r="I18">
-        <v>0.198842316509197</v>
-      </c>
-      <c r="J18">
-        <v>0.2022682209115823</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.315803333333333</v>
-      </c>
-      <c r="N18">
-        <v>3.94741</v>
-      </c>
-      <c r="O18">
-        <v>0.1597174019870148</v>
-      </c>
-      <c r="P18">
-        <v>0.1645098266387386</v>
-      </c>
-      <c r="Q18">
-        <v>0.5970865524033334</v>
-      </c>
-      <c r="R18">
-        <v>5.37377897163</v>
-      </c>
-      <c r="S18">
-        <v>0.03175857819792864</v>
-      </c>
-      <c r="T18">
-        <v>0.03327510995669049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.453781</v>
-      </c>
-      <c r="H19">
-        <v>1.361343</v>
-      </c>
-      <c r="I19">
-        <v>0.198842316509197</v>
-      </c>
-      <c r="J19">
-        <v>0.2022682209115823</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.6767933333333334</v>
-      </c>
-      <c r="N19">
-        <v>2.03038</v>
-      </c>
-      <c r="O19">
-        <v>0.08215184605764159</v>
-      </c>
-      <c r="P19">
-        <v>0.08461686569440774</v>
-      </c>
-      <c r="Q19">
-        <v>0.3071159555933333</v>
-      </c>
-      <c r="R19">
-        <v>2.76404360034</v>
-      </c>
-      <c r="S19">
-        <v>0.0163352633756084</v>
-      </c>
-      <c r="T19">
-        <v>0.01711530288312215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.453781</v>
-      </c>
-      <c r="H20">
-        <v>1.361343</v>
-      </c>
-      <c r="I20">
-        <v>0.198842316509197</v>
-      </c>
-      <c r="J20">
-        <v>0.2022682209115823</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.7199850000000001</v>
-      </c>
-      <c r="N20">
-        <v>1.43997</v>
-      </c>
-      <c r="O20">
-        <v>0.08739462103223694</v>
-      </c>
-      <c r="P20">
-        <v>0.06001130236407783</v>
-      </c>
-      <c r="Q20">
-        <v>0.326715513285</v>
-      </c>
-      <c r="R20">
-        <v>1.96029307971</v>
-      </c>
-      <c r="S20">
-        <v>0.01737774889649338</v>
-      </c>
-      <c r="T20">
-        <v>0.01213837936376906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.453781</v>
-      </c>
-      <c r="H21">
-        <v>1.361343</v>
-      </c>
-      <c r="I21">
-        <v>0.198842316509197</v>
-      </c>
-      <c r="J21">
-        <v>0.2022682209115823</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.5232936666666667</v>
-      </c>
-      <c r="N21">
-        <v>1.569881</v>
-      </c>
-      <c r="O21">
-        <v>0.06351945066480975</v>
-      </c>
-      <c r="P21">
-        <v>0.06542539314473277</v>
-      </c>
-      <c r="Q21">
-        <v>0.2374607233536667</v>
-      </c>
-      <c r="R21">
-        <v>2.137146510183</v>
-      </c>
-      <c r="S21">
-        <v>0.01263035471358243</v>
-      </c>
-      <c r="T21">
-        <v>0.01323347787382593</v>
+        <v>0.007815754958139165</v>
       </c>
     </row>
   </sheetData>
